--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Pomc</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9347220000000002</v>
+        <v>0.5131323333333334</v>
       </c>
       <c r="H2">
-        <v>2.804166</v>
+        <v>1.539397</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9119558630037493</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9119558630037494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8324493333333334</v>
+        <v>1.011219333333333</v>
       </c>
       <c r="N2">
-        <v>2.497348</v>
+        <v>3.033658</v>
       </c>
       <c r="O2">
-        <v>0.1902770762854465</v>
+        <v>0.1971977600385235</v>
       </c>
       <c r="P2">
-        <v>0.1902770762854465</v>
+        <v>0.1971977600385236</v>
       </c>
       <c r="Q2">
-        <v>0.7781087057520002</v>
+        <v>0.5188893360251111</v>
       </c>
       <c r="R2">
-        <v>7.002978351768001</v>
+        <v>4.670004024226</v>
       </c>
       <c r="S2">
-        <v>0.1902770762854465</v>
+        <v>0.179835653438338</v>
       </c>
       <c r="T2">
-        <v>0.1902770762854465</v>
+        <v>0.179835653438338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9347220000000002</v>
+        <v>0.5131323333333334</v>
       </c>
       <c r="H3">
-        <v>2.804166</v>
+        <v>1.539397</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9119558630037493</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9119558630037494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.237666</v>
+        <v>3.237665999999999</v>
       </c>
       <c r="N3">
-        <v>9.712998000000001</v>
+        <v>9.712997999999999</v>
       </c>
       <c r="O3">
-        <v>0.7400493889543587</v>
+        <v>0.6313768555515021</v>
       </c>
       <c r="P3">
-        <v>0.7400493889543587</v>
+        <v>0.6313768555515022</v>
       </c>
       <c r="Q3">
-        <v>3.026317638852001</v>
+        <v>1.661351109134</v>
       </c>
       <c r="R3">
-        <v>27.23685874966801</v>
+        <v>14.952159982206</v>
       </c>
       <c r="S3">
-        <v>0.7400493889543587</v>
+        <v>0.5757878251850637</v>
       </c>
       <c r="T3">
-        <v>0.7400493889543587</v>
+        <v>0.5757878251850639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.5131323333333334</v>
+      </c>
+      <c r="H4">
+        <v>1.539397</v>
+      </c>
+      <c r="I4">
+        <v>0.9119558630037493</v>
+      </c>
+      <c r="J4">
+        <v>0.9119558630037494</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.7485606666666667</v>
+      </c>
+      <c r="N4">
+        <v>2.245682</v>
+      </c>
+      <c r="O4">
+        <v>0.1459767251808977</v>
+      </c>
+      <c r="P4">
+        <v>0.1459767251808977</v>
+      </c>
+      <c r="Q4">
+        <v>0.3841106815282223</v>
+      </c>
+      <c r="R4">
+        <v>3.456996133754</v>
+      </c>
+      <c r="S4">
+        <v>0.1331243303908067</v>
+      </c>
+      <c r="T4">
+        <v>0.1331243303908067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5131323333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.539397</v>
+      </c>
+      <c r="I5">
+        <v>0.9119558630037493</v>
+      </c>
+      <c r="J5">
+        <v>0.9119558630037494</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1304993333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.391498</v>
+      </c>
+      <c r="O5">
+        <v>0.02544865922907654</v>
+      </c>
+      <c r="P5">
+        <v>0.02544865922907655</v>
+      </c>
+      <c r="Q5">
+        <v>0.06696342741177778</v>
+      </c>
+      <c r="R5">
+        <v>0.602670846706</v>
+      </c>
+      <c r="S5">
+        <v>0.02320805398954083</v>
+      </c>
+      <c r="T5">
+        <v>0.02320805398954083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.04954</v>
+      </c>
+      <c r="H6">
+        <v>0.14862</v>
+      </c>
+      <c r="I6">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J6">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.011219333333333</v>
+      </c>
+      <c r="N6">
+        <v>3.033658</v>
+      </c>
+      <c r="O6">
+        <v>0.1971977600385235</v>
+      </c>
+      <c r="P6">
+        <v>0.1971977600385236</v>
+      </c>
+      <c r="Q6">
+        <v>0.05009580577333333</v>
+      </c>
+      <c r="R6">
+        <v>0.45086225196</v>
+      </c>
+      <c r="S6">
+        <v>0.01736210660018552</v>
+      </c>
+      <c r="T6">
+        <v>0.01736210660018553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.9347220000000002</v>
-      </c>
-      <c r="H4">
-        <v>2.804166</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.304817</v>
-      </c>
-      <c r="N4">
-        <v>0.914451</v>
-      </c>
-      <c r="O4">
-        <v>0.06967353476019476</v>
-      </c>
-      <c r="P4">
-        <v>0.06967353476019476</v>
-      </c>
-      <c r="Q4">
-        <v>0.2849191558740001</v>
-      </c>
-      <c r="R4">
-        <v>2.564272402866</v>
-      </c>
-      <c r="S4">
-        <v>0.06967353476019476</v>
-      </c>
-      <c r="T4">
-        <v>0.06967353476019476</v>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04954</v>
+      </c>
+      <c r="H7">
+        <v>0.14862</v>
+      </c>
+      <c r="I7">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J7">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.237665999999999</v>
+      </c>
+      <c r="N7">
+        <v>9.712997999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.6313768555515021</v>
+      </c>
+      <c r="P7">
+        <v>0.6313768555515022</v>
+      </c>
+      <c r="Q7">
+        <v>0.16039397364</v>
+      </c>
+      <c r="R7">
+        <v>1.44354576276</v>
+      </c>
+      <c r="S7">
+        <v>0.05558903036643839</v>
+      </c>
+      <c r="T7">
+        <v>0.05558903036643841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04954</v>
+      </c>
+      <c r="H8">
+        <v>0.14862</v>
+      </c>
+      <c r="I8">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J8">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.7485606666666667</v>
+      </c>
+      <c r="N8">
+        <v>2.245682</v>
+      </c>
+      <c r="O8">
+        <v>0.1459767251808977</v>
+      </c>
+      <c r="P8">
+        <v>0.1459767251808977</v>
+      </c>
+      <c r="Q8">
+        <v>0.03708369542666667</v>
+      </c>
+      <c r="R8">
+        <v>0.33375325884</v>
+      </c>
+      <c r="S8">
+        <v>0.01285239479009098</v>
+      </c>
+      <c r="T8">
+        <v>0.01285239479009098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04954</v>
+      </c>
+      <c r="H9">
+        <v>0.14862</v>
+      </c>
+      <c r="I9">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J9">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1304993333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.391498</v>
+      </c>
+      <c r="O9">
+        <v>0.02544865922907654</v>
+      </c>
+      <c r="P9">
+        <v>0.02544865922907655</v>
+      </c>
+      <c r="Q9">
+        <v>0.006464936973333333</v>
+      </c>
+      <c r="R9">
+        <v>0.05818443276</v>
+      </c>
+      <c r="S9">
+        <v>0.002240605239535713</v>
+      </c>
+      <c r="T9">
+        <v>0.002240605239535713</v>
       </c>
     </row>
   </sheetData>
